--- a/03.試験/卒ARu_BackEnd動作確認.xlsx
+++ b/03.試験/卒ARu_BackEnd動作確認.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keiko.kawamura\Documents\20190902_AR\動作確認\20200624_background\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keiko.kawamura\Documents\20190902_AR\GitHub_Document\msar_Documents\03.試験\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC79585-3CCD-40AD-B416-46A47CE28258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF26F4-A6C7-4AAA-8577-535B03FDD066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="0" windowWidth="18100" windowHeight="9690" xr2:uid="{81B1839A-0229-46B4-B1C2-F41E33DEA6A1}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="都道府県コード確認 " sheetId="5" r:id="rId2"/>
     <sheet name="アルバム登録 編集 削除 検索" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="275">
   <si>
     <t>都道府県コード確認</t>
     <rPh sb="0" eb="4">
@@ -2333,25 +2333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10分後、アプリで該当アルバムIDを入力すると「アルバムは存在しません。」と表示される</t>
-    <rPh sb="2" eb="4">
-      <t>フンゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>直後、アプリで該当アルバムIDを入力するとARカメラが起動する</t>
     <rPh sb="0" eb="2">
       <t>チョクゴ</t>
@@ -2362,32 +2343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1-4-5．の操作後、アプリでアルバムIDを入力し、登録画像にかざす</t>
-    <rPh sb="7" eb="9">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変化しない</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>卒ARu BackEnd動作確認</t>
     <rPh sb="0" eb="1">
       <t>ソツ</t>
@@ -2397,6 +2352,175 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認環境</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows 10 Home (64bit)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマートホン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-01K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android 9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト項目</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全件数</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残件数</t>
+    <rPh sb="0" eb="1">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集前の動画が再生される</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARカメラを起動しなおす必要がある</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除した動画が再生される</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インジケータ動画が表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10分後、アプリで該当アルバムIDを入力すると「入力したアルバムIDは正しくありません。」と表示される</t>
+    <rPh sb="2" eb="4">
+      <t>フンゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「入力したアルバムIDは正しくありません。」と表示される</t>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4-5．の操作後、アプリでアルバムIDを入力する</t>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2405,7 +2529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2425,6 +2549,23 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2469,7 +2610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -3126,13 +3267,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3386,6 +3553,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3711,7 +3890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB7D5E8-BD0A-424C-BB3F-E521FF9D85E5}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -3721,6 +3900,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="52" width="3.75" customWidth="1"/>
@@ -3729,80 +3909,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>255</v>
+      <c r="A1" s="87" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B3" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C3" s="65" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="83" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C4" s="49" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="49"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="49" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="49"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="49"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B8" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C8" s="49"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="88" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="86"/>
+      <c r="B12" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="86"/>
+      <c r="B14" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>261</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -3814,8 +4031,8 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3825,11 +4042,8 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3851,6 +4065,20 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3880,7 +4108,7 @@
   <sheetData>
     <row r="1" spans="1:56" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
-        <f>CONCATENATE(確認内容!A3,確認内容!B3)</f>
+        <f>CONCATENATE(確認内容!A4,確認内容!B4)</f>
         <v>1-1．都道府県コード確認</v>
       </c>
     </row>
@@ -10871,7 +11099,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FFFCB4-3D09-40CC-8C95-1B5A31A9C005}">
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -10886,11 +11114,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="69" t="s">
         <v>138</v>
       </c>
@@ -10903,13 +11131,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="60" t="str">
-        <f>確認内容!$A$4</f>
+        <f>確認内容!$A$5</f>
         <v>1-2．</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="62"/>
       <c r="D2" s="70" t="str">
-        <f>確認内容!$B$4</f>
+        <f>確認内容!$B$5</f>
         <v>アルバム登録</v>
       </c>
       <c r="E2" s="63"/>
@@ -11391,13 +11619,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="55" t="str">
-        <f>確認内容!A5</f>
+        <f>確認内容!A6</f>
         <v>1-3．</v>
       </c>
       <c r="B39" s="56"/>
       <c r="C39" s="57"/>
       <c r="D39" s="73" t="str">
-        <f>確認内容!B5</f>
+        <f>確認内容!B6</f>
         <v>アルバム編集</v>
       </c>
       <c r="E39" s="58"/>
@@ -12028,8 +12256,12 @@
       <c r="D87" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="E87" s="67"/>
-      <c r="F87" s="84"/>
+      <c r="E87" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="F87" s="84">
+        <v>44032</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="43"/>
@@ -12140,8 +12372,12 @@
       <c r="D95" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="E95" s="67"/>
-      <c r="F95" s="84"/>
+      <c r="E95" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="F95" s="84">
+        <v>44032</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="43"/>
@@ -12569,7 +12805,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="43"/>
       <c r="B129" s="44"/>
       <c r="C129" s="45">
@@ -12585,7 +12821,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="43"/>
       <c r="B130" s="44"/>
       <c r="C130" s="45">
@@ -12601,7 +12837,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="43"/>
       <c r="B131" s="44"/>
       <c r="C131" s="45">
@@ -12617,7 +12853,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="43"/>
       <c r="B132" s="44"/>
       <c r="C132" s="45">
@@ -12626,10 +12862,17 @@
       <c r="D132" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="E132" s="67"/>
-      <c r="F132" s="84"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E132" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="F132" s="84">
+        <v>44032</v>
+      </c>
+      <c r="G132" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="43"/>
       <c r="B133" s="44"/>
       <c r="C133" s="45">
@@ -12638,17 +12881,21 @@
       <c r="D133" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="E133" s="67"/>
-      <c r="F133" s="84"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E133" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F133" s="84">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="43"/>
       <c r="B134" s="44"/>
       <c r="C134" s="45"/>
       <c r="E134" s="50"/>
       <c r="F134" s="45"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="43"/>
       <c r="B135" s="44">
         <v>20</v>
@@ -12660,7 +12907,7 @@
       <c r="E135" s="50"/>
       <c r="F135" s="45"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="43"/>
       <c r="B136" s="44"/>
       <c r="C136" s="45">
@@ -12676,7 +12923,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="43"/>
       <c r="B137" s="44"/>
       <c r="C137" s="45">
@@ -12692,7 +12939,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="43"/>
       <c r="B138" s="44"/>
       <c r="C138" s="45">
@@ -12708,7 +12955,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="43"/>
       <c r="B139" s="44"/>
       <c r="C139" s="45">
@@ -12724,7 +12971,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="43"/>
       <c r="B140" s="44"/>
       <c r="C140" s="45">
@@ -12740,7 +12987,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="43"/>
       <c r="B141" s="44"/>
       <c r="C141" s="45">
@@ -12749,10 +12996,14 @@
       <c r="D141" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="E141" s="67"/>
-      <c r="F141" s="84"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E141" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F141" s="84">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="43"/>
       <c r="B142" s="44"/>
       <c r="C142" s="45">
@@ -12761,10 +13012,17 @@
       <c r="D142" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="E142" s="67"/>
-      <c r="F142" s="84"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E142" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F142" s="84">
+        <v>44032</v>
+      </c>
+      <c r="G142" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="43"/>
       <c r="B143" s="44"/>
       <c r="C143" s="45"/>
@@ -12772,7 +13030,7 @@
       <c r="E143" s="50"/>
       <c r="F143" s="45"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="43"/>
       <c r="B144" s="44">
         <v>21</v>
@@ -12842,13 +13100,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="55" t="str">
-        <f>確認内容!A6</f>
+        <f>確認内容!A7</f>
         <v>1-4．</v>
       </c>
       <c r="B149" s="56"/>
       <c r="C149" s="57"/>
       <c r="D149" s="73" t="str">
-        <f>確認内容!B6</f>
+        <f>確認内容!B7</f>
         <v>アルバム削除</v>
       </c>
       <c r="E149" s="58"/>
@@ -12996,7 +13254,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="43"/>
       <c r="B161" s="44"/>
       <c r="C161" s="45">
@@ -13012,7 +13270,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="43"/>
       <c r="B162" s="44"/>
       <c r="C162" s="45">
@@ -13021,10 +13279,17 @@
       <c r="D162" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="E162" s="67"/>
-      <c r="F162" s="84"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E162" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="F162" s="84">
+        <v>44032</v>
+      </c>
+      <c r="G162" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="43"/>
       <c r="B163" s="44"/>
       <c r="C163" s="45"/>
@@ -13032,7 +13297,7 @@
       <c r="E163" s="50"/>
       <c r="F163" s="45"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="43"/>
       <c r="B164" s="44">
         <v>4</v>
@@ -13044,7 +13309,7 @@
       <c r="E164" s="50"/>
       <c r="F164" s="45"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="43"/>
       <c r="B165" s="44"/>
       <c r="C165" s="45">
@@ -13060,104 +13325,115 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="43"/>
       <c r="B166" s="44"/>
-      <c r="C166" s="45"/>
-      <c r="D166" s="72"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="45"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C166" s="45">
+        <v>2</v>
+      </c>
+      <c r="D166" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="E166" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="F166" s="84">
+        <v>44032</v>
+      </c>
+      <c r="G166" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="43"/>
-      <c r="B167" s="44">
-        <v>5</v>
-      </c>
+      <c r="B167" s="44"/>
       <c r="C167" s="45"/>
-      <c r="D167" s="72" t="s">
-        <v>250</v>
-      </c>
+      <c r="D167" s="72"/>
       <c r="E167" s="50"/>
       <c r="F167" s="45"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="43"/>
-      <c r="B168" s="44"/>
-      <c r="C168" s="45">
-        <v>1</v>
-      </c>
+      <c r="B168" s="44">
+        <v>5</v>
+      </c>
+      <c r="C168" s="45"/>
       <c r="D168" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="E168" s="67"/>
-      <c r="F168" s="84"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>250</v>
+      </c>
+      <c r="E168" s="50"/>
+      <c r="F168" s="45"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="43"/>
       <c r="B169" s="44"/>
       <c r="C169" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="E169" s="67"/>
-      <c r="F169" s="84"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E169" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="F169" s="84">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="43"/>
       <c r="B170" s="44"/>
-      <c r="C170" s="45"/>
-      <c r="D170" s="72"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="45"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="51"/>
-      <c r="B171" s="52"/>
-      <c r="C171" s="53"/>
-      <c r="D171" s="71" t="s">
+      <c r="C170" s="45">
+        <v>2</v>
+      </c>
+      <c r="D170" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="E170" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="F170" s="84">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="43"/>
+      <c r="B171" s="44"/>
+      <c r="C171" s="45"/>
+      <c r="D171" s="72"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="45"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="51"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="E171" s="54"/>
-      <c r="F171" s="53"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="43"/>
-      <c r="B172" s="44">
+      <c r="E172" s="54"/>
+      <c r="F172" s="53"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="43"/>
+      <c r="B173" s="44">
         <v>5</v>
       </c>
-      <c r="C172" s="45"/>
-      <c r="D172" s="68" t="s">
+      <c r="C173" s="45"/>
+      <c r="D173" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="E172" s="50"/>
-      <c r="F172" s="45"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="43"/>
-      <c r="B173" s="44"/>
-      <c r="C173" s="45">
-        <v>1</v>
-      </c>
-      <c r="D173" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E173" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F173" s="46">
-        <v>44015</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E173" s="50"/>
+      <c r="F173" s="45"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="43"/>
       <c r="B174" s="44"/>
       <c r="C174" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174" s="68" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="E174" s="50" t="s">
         <v>168</v>
@@ -13166,86 +13442,86 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="43"/>
       <c r="B175" s="44"/>
-      <c r="C175" s="45"/>
-      <c r="D175" s="68"/>
-      <c r="E175" s="50"/>
-      <c r="F175" s="45"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C175" s="45">
+        <v>2</v>
+      </c>
+      <c r="D175" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E175" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F175" s="46">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="43"/>
-      <c r="B176" s="44">
-        <v>6</v>
-      </c>
+      <c r="B176" s="44"/>
       <c r="C176" s="45"/>
-      <c r="D176" s="68" t="s">
-        <v>209</v>
-      </c>
+      <c r="D176" s="68"/>
       <c r="E176" s="50"/>
       <c r="F176" s="45"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="43"/>
-      <c r="B177" s="44"/>
-      <c r="C177" s="45">
-        <v>1</v>
-      </c>
+      <c r="B177" s="44">
+        <v>6</v>
+      </c>
+      <c r="C177" s="45"/>
       <c r="D177" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="E177" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F177" s="46">
-        <v>44015</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E177" s="50"/>
+      <c r="F177" s="45"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="43"/>
       <c r="B178" s="44"/>
-      <c r="C178" s="45"/>
-      <c r="D178" s="68"/>
-      <c r="E178" s="50"/>
-      <c r="F178" s="45"/>
+      <c r="C178" s="45">
+        <v>1</v>
+      </c>
+      <c r="D178" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E178" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F178" s="46">
+        <v>44015</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="43"/>
-      <c r="B179" s="44">
-        <v>7</v>
-      </c>
+      <c r="B179" s="44"/>
       <c r="C179" s="45"/>
-      <c r="D179" s="68" t="s">
-        <v>211</v>
-      </c>
+      <c r="D179" s="68"/>
       <c r="E179" s="50"/>
       <c r="F179" s="45"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="43"/>
-      <c r="B180" s="44"/>
-      <c r="C180" s="45">
-        <v>1</v>
-      </c>
+      <c r="B180" s="44">
+        <v>7</v>
+      </c>
+      <c r="C180" s="45"/>
       <c r="D180" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="E180" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F180" s="46">
-        <v>44015</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E180" s="50"/>
+      <c r="F180" s="45"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="43"/>
       <c r="B181" s="44"/>
       <c r="C181" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181" s="68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E181" s="50" t="s">
         <v>168</v>
@@ -13257,165 +13533,169 @@
     <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="43"/>
       <c r="B182" s="44"/>
-      <c r="C182" s="45"/>
-      <c r="D182" s="68"/>
-      <c r="E182" s="50"/>
-      <c r="F182" s="46"/>
+      <c r="C182" s="45">
+        <v>2</v>
+      </c>
+      <c r="D182" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="E182" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F182" s="46">
+        <v>44015</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="43"/>
-      <c r="B183" s="44">
-        <v>8</v>
-      </c>
+      <c r="B183" s="44"/>
       <c r="C183" s="45"/>
-      <c r="D183" s="68" t="s">
-        <v>253</v>
-      </c>
+      <c r="D183" s="68"/>
       <c r="E183" s="50"/>
-      <c r="F183" s="45"/>
+      <c r="F183" s="46"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="43"/>
-      <c r="B184" s="44"/>
-      <c r="C184" s="45">
-        <v>1</v>
-      </c>
-      <c r="D184" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="E184" s="67"/>
-      <c r="F184" s="84"/>
+      <c r="B184" s="44">
+        <v>8</v>
+      </c>
+      <c r="C184" s="45"/>
+      <c r="D184" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="E184" s="50"/>
+      <c r="F184" s="45"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="43"/>
       <c r="B185" s="44"/>
-      <c r="C185" s="45"/>
-      <c r="D185" s="68"/>
-      <c r="E185" s="50"/>
-      <c r="F185" s="45"/>
+      <c r="C185" s="45">
+        <v>1</v>
+      </c>
+      <c r="D185" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="E185" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="F185" s="84">
+        <v>44032</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="55" t="str">
-        <f>確認内容!A7</f>
+      <c r="A186" s="43"/>
+      <c r="B186" s="44"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="68"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="45"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="55" t="str">
+        <f>確認内容!A8</f>
         <v>1-5．</v>
       </c>
-      <c r="B186" s="56"/>
-      <c r="C186" s="57"/>
-      <c r="D186" s="73" t="str">
-        <f>確認内容!B7</f>
+      <c r="B187" s="56"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="73" t="str">
+        <f>確認内容!B8</f>
         <v>アルバム検索</v>
       </c>
-      <c r="E186" s="58"/>
-      <c r="F186" s="57"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="43"/>
-      <c r="B187" s="44">
-        <v>1</v>
-      </c>
-      <c r="C187" s="45"/>
-      <c r="D187" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="E187" s="50"/>
-      <c r="F187" s="45"/>
+      <c r="E187" s="58"/>
+      <c r="F187" s="57"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="43"/>
-      <c r="B188" s="44"/>
-      <c r="C188" s="45">
+      <c r="B188" s="44">
         <v>1</v>
       </c>
+      <c r="C188" s="45"/>
       <c r="D188" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="E188" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F188" s="46">
-        <v>44025</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E188" s="50"/>
+      <c r="F188" s="45"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="43"/>
       <c r="B189" s="44"/>
-      <c r="C189" s="45"/>
-      <c r="D189" s="68"/>
-      <c r="E189" s="50"/>
-      <c r="F189" s="46"/>
+      <c r="C189" s="45">
+        <v>1</v>
+      </c>
+      <c r="D189" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="E189" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F189" s="46">
+        <v>44025</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="43"/>
-      <c r="B190" s="44">
-        <v>2</v>
-      </c>
+      <c r="B190" s="44"/>
       <c r="C190" s="45"/>
-      <c r="D190" s="68" t="s">
-        <v>231</v>
-      </c>
+      <c r="D190" s="68"/>
       <c r="E190" s="50"/>
       <c r="F190" s="46"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="43"/>
-      <c r="B191" s="44"/>
-      <c r="C191" s="45">
-        <v>1</v>
-      </c>
+      <c r="B191" s="44">
+        <v>2</v>
+      </c>
+      <c r="C191" s="45"/>
       <c r="D191" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="E191" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F191" s="46">
-        <v>44025</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E191" s="50"/>
+      <c r="F191" s="46"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="43"/>
       <c r="B192" s="44"/>
-      <c r="C192" s="45"/>
-      <c r="D192" s="68"/>
-      <c r="E192" s="50"/>
-      <c r="F192" s="45"/>
+      <c r="C192" s="45">
+        <v>1</v>
+      </c>
+      <c r="D192" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E192" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F192" s="46">
+        <v>44025</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="43"/>
-      <c r="B193" s="44">
-        <v>3</v>
-      </c>
+      <c r="B193" s="44"/>
       <c r="C193" s="45"/>
-      <c r="D193" s="68" t="s">
-        <v>218</v>
-      </c>
+      <c r="D193" s="68"/>
       <c r="E193" s="50"/>
       <c r="F193" s="45"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="43"/>
-      <c r="B194" s="44"/>
-      <c r="C194" s="45">
-        <v>1</v>
-      </c>
+      <c r="B194" s="44">
+        <v>3</v>
+      </c>
+      <c r="C194" s="45"/>
       <c r="D194" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="E194" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F194" s="46">
-        <v>44025</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E194" s="50"/>
+      <c r="F194" s="45"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="43"/>
       <c r="B195" s="44"/>
       <c r="C195" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195" s="68" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E195" s="50" t="s">
         <v>168</v>
@@ -13427,47 +13707,47 @@
     <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="43"/>
       <c r="B196" s="44"/>
-      <c r="C196" s="45"/>
-      <c r="D196" s="68"/>
-      <c r="E196" s="50"/>
-      <c r="F196" s="45"/>
+      <c r="C196" s="45">
+        <v>2</v>
+      </c>
+      <c r="D196" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="E196" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F196" s="46">
+        <v>44025</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="43"/>
-      <c r="B197" s="44">
-        <v>4</v>
-      </c>
+      <c r="B197" s="44"/>
       <c r="C197" s="45"/>
-      <c r="D197" s="68" t="s">
-        <v>217</v>
-      </c>
+      <c r="D197" s="68"/>
       <c r="E197" s="50"/>
       <c r="F197" s="45"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="43"/>
-      <c r="B198" s="44"/>
-      <c r="C198" s="45">
-        <v>1</v>
-      </c>
+      <c r="B198" s="44">
+        <v>4</v>
+      </c>
+      <c r="C198" s="45"/>
       <c r="D198" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="E198" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F198" s="46">
-        <v>44025</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E198" s="50"/>
+      <c r="F198" s="45"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="43"/>
       <c r="B199" s="44"/>
       <c r="C199" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199" s="68" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E199" s="50" t="s">
         <v>168</v>
@@ -13479,47 +13759,47 @@
     <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="43"/>
       <c r="B200" s="44"/>
-      <c r="C200" s="45"/>
-      <c r="D200" s="68"/>
-      <c r="E200" s="50"/>
-      <c r="F200" s="45"/>
+      <c r="C200" s="45">
+        <v>2</v>
+      </c>
+      <c r="D200" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="E200" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F200" s="46">
+        <v>44025</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="43"/>
-      <c r="B201" s="44">
-        <v>5</v>
-      </c>
+      <c r="B201" s="44"/>
       <c r="C201" s="45"/>
-      <c r="D201" s="68" t="s">
-        <v>222</v>
-      </c>
+      <c r="D201" s="68"/>
       <c r="E201" s="50"/>
       <c r="F201" s="45"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="43"/>
-      <c r="B202" s="44"/>
-      <c r="C202" s="45">
-        <v>1</v>
-      </c>
+      <c r="B202" s="44">
+        <v>5</v>
+      </c>
+      <c r="C202" s="45"/>
       <c r="D202" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="E202" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F202" s="46">
-        <v>44025</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E202" s="50"/>
+      <c r="F202" s="45"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="43"/>
       <c r="B203" s="44"/>
       <c r="C203" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E203" s="50" t="s">
         <v>168</v>
@@ -13531,47 +13811,47 @@
     <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="43"/>
       <c r="B204" s="44"/>
-      <c r="C204" s="45"/>
-      <c r="D204" s="68"/>
-      <c r="E204" s="50"/>
-      <c r="F204" s="45"/>
+      <c r="C204" s="45">
+        <v>2</v>
+      </c>
+      <c r="D204" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="E204" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F204" s="46">
+        <v>44025</v>
+      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="43"/>
-      <c r="B205" s="44">
-        <v>6</v>
-      </c>
+      <c r="B205" s="44"/>
       <c r="C205" s="45"/>
-      <c r="D205" s="68" t="s">
-        <v>226</v>
-      </c>
+      <c r="D205" s="68"/>
       <c r="E205" s="50"/>
       <c r="F205" s="45"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="43"/>
-      <c r="B206" s="44"/>
-      <c r="C206" s="45">
-        <v>1</v>
-      </c>
+      <c r="B206" s="44">
+        <v>6</v>
+      </c>
+      <c r="C206" s="45"/>
       <c r="D206" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E206" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F206" s="46">
-        <v>44025</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E206" s="50"/>
+      <c r="F206" s="45"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="43"/>
       <c r="B207" s="44"/>
       <c r="C207" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207" s="68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E207" s="50" t="s">
         <v>168</v>
@@ -13583,70 +13863,104 @@
     <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="43"/>
       <c r="B208" s="44"/>
-      <c r="C208" s="45"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="50"/>
-      <c r="F208" s="45"/>
-    </row>
-    <row r="209" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C208" s="45">
+        <v>2</v>
+      </c>
+      <c r="D208" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E208" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F208" s="46">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="43"/>
-      <c r="B209" s="44">
-        <v>7</v>
-      </c>
+      <c r="B209" s="44"/>
       <c r="C209" s="45"/>
-      <c r="D209" s="68" t="s">
-        <v>229</v>
-      </c>
+      <c r="D209" s="68"/>
       <c r="E209" s="50"/>
       <c r="F209" s="45"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="43"/>
-      <c r="B210" s="44"/>
-      <c r="C210" s="45">
-        <v>1</v>
-      </c>
+      <c r="B210" s="44">
+        <v>7</v>
+      </c>
+      <c r="C210" s="45"/>
       <c r="D210" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="E210" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F210" s="46">
-        <v>44025</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E210" s="50"/>
+      <c r="F210" s="45"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="43"/>
       <c r="B211" s="44"/>
-      <c r="C211" s="45"/>
-      <c r="D211" s="68"/>
-      <c r="E211" s="50"/>
-      <c r="F211" s="45"/>
+      <c r="C211" s="45">
+        <v>1</v>
+      </c>
+      <c r="D211" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E211" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F211" s="46">
+        <v>44025</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" s="47"/>
-      <c r="B212" s="80"/>
-      <c r="C212" s="48"/>
-      <c r="D212" s="81"/>
-      <c r="E212" s="82"/>
-      <c r="F212" s="48"/>
+      <c r="A212" s="43"/>
+      <c r="B212" s="44"/>
+      <c r="C212" s="45"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="50"/>
+      <c r="F212" s="45"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D213" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="E213" s="49">
-        <f>COUNTIF(E2:E212,"OK")</f>
-        <v>98</v>
-      </c>
+      <c r="A213" s="47"/>
+      <c r="B213" s="80"/>
+      <c r="C213" s="48"/>
+      <c r="D213" s="81"/>
+      <c r="E213" s="82"/>
+      <c r="F213" s="48"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D214" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="E214" s="49">
+        <f>COUNTIF(E2:E213,"OK")</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D215" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="E214" s="49">
-        <f>COUNTIF(E2:E212,"NG")</f>
+      <c r="E215" s="49">
+        <f>COUNTIF(E2:E213,"NG")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D217" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="E217" s="49">
+        <f>COUNT(C4:C213)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D218" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="E218" s="49">
+        <f>E217-(E214+E215)</f>
         <v>0</v>
       </c>
     </row>
